--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.1_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.1_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/personal/kibi/format_v14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="34" documentId="8_{55E22259-CD6C-444B-939E-9DC6819DD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A312FC4-B3E0-4258-9B53-7BE395CA4E8D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="11" r:id="rId1"/>
@@ -836,10 +836,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8BBC604-6628-4B38-A645-B39827396794}" name="Table1" displayName="Table1" ref="A1:R59" totalsRowShown="0">
   <autoFilter ref="A1:R59" xr:uid="{F8BBC604-6628-4B38-A645-B39827396794}"/>
@@ -3868,7 +3864,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6856,7 +6852,9 @@
   </sheetPr>
   <dimension ref="A1:U62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11085,6 +11083,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -11261,18 +11271,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11283,6 +11281,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11301,23 +11316,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
   <ds:schemaRefs>

--- a/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.1_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF_v14_suggestions/RCEF_tv14.1_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{55E22259-CD6C-444B-939E-9DC6819DD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A312FC4-B3E0-4258-9B53-7BE395CA4E8D}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{55E22259-CD6C-444B-939E-9DC6819DD3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CA97BA2-D440-4CA1-B50B-185751F0F805}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="735" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3864,7 +3864,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4000,7 +4000,7 @@
         <v>33</v>
       </c>
       <c r="J3" s="9">
-        <v>34574.719664236181</v>
+        <v>7000</v>
       </c>
       <c r="L3" t="s">
         <v>40</v>
@@ -11083,15 +11083,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11272,27 +11269,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11317,9 +11308,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60664607-CBCD-4AFC-843C-4CFA04400440}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>